--- a/data/Sup_PivotTable_RNA_forPubli_AllGenes.xlsx
+++ b/data/Sup_PivotTable_RNA_forPubli_AllGenes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25515" windowHeight="15615" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SIC1" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="35">
   <si>
     <t># RNA/cell</t>
   </si>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -297,6 +297,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -408,6 +409,2539 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SIC1'!$L$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>early G1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>late G1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P/M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T/C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 2spc / noBud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SIC1'!$L$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.0845771144278604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4492753623188408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3431952662721893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0559440559440558</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1014492753623188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.231884057971014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0666666666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="365254864"/>
+        <c:axId val="365255648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="365254864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365255648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365255648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365254864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CLN2'!$L$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>early G1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>late G1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P/M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T/C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 2spc / noBud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CLN2'!$L$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2542372881355934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.021276595744681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6446280991735538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36486486486486486</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1194029850746268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="661784344"/>
+        <c:axId val="661782776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="661784344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661782776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661782776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661784344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'CLB5'!$L$2:$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>early G1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>late G1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>S</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P/M</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ana</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>T/C</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 2spc / noBud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'CLB5'!$L$3:$S$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.3214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7837837837837838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8268156424581006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56551724137931036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61971830985915488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97727272727272729</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7931034482758621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="661797672"/>
+        <c:axId val="661796104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="661797672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661796104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="661796104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="661797672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>444501</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,10 +3266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J293"/>
+  <dimension ref="A1:S293"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -744,12 +3278,12 @@
     <col min="2" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,8 +3314,32 @@
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -813,8 +3371,40 @@
       <c r="J3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="6">
+        <f>SUMPRODUCT($A$3:$A$42,C3:C42)/SUM(C3:C42)</f>
+        <v>4.0845771144278604</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:S3" si="1">SUMPRODUCT($A$3:$A$42,D3:D42)/SUM(D3:D42)</f>
+        <v>3.4492753623188408</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="1"/>
+        <v>2.3431952662721893</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0559440559440558</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1014492753623188</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="1"/>
+        <v>14.231884057971014</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="1"/>
+        <v>24.933333333333334</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="1"/>
+        <v>4.0666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -847,7 +3437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -880,7 +3470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -913,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -946,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -979,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1012,7 +3602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1045,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1078,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1111,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1144,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1177,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1210,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -2114,31 +4704,31 @@
         <v>201</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" ref="D43:J43" si="1">SUM(D3:D42)</f>
+        <f t="shared" ref="D43:J43" si="2">SUM(D3:D42)</f>
         <v>276</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -2217,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" ref="B49:B87" si="2" xml:space="preserve"> SUM(C49:J49)</f>
+        <f t="shared" ref="B49:B87" si="3" xml:space="preserve"> SUM(C49:J49)</f>
         <v>94</v>
       </c>
       <c r="C49" s="1">
@@ -2250,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="C50" s="1">
@@ -2283,7 +4873,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="C51" s="1">
@@ -2316,7 +4906,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="C52" s="1">
@@ -2349,7 +4939,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="C53" s="1">
@@ -2382,7 +4972,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="C54" s="1">
@@ -2415,7 +5005,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C55" s="1">
@@ -2448,7 +5038,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="C56" s="1">
@@ -2481,7 +5071,7 @@
         <v>9</v>
       </c>
       <c r="B57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C57" s="1">
@@ -2514,7 +5104,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="C58" s="1">
@@ -2547,7 +5137,7 @@
         <v>11</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C59" s="1">
@@ -2580,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C60" s="1">
@@ -2613,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C61" s="1">
@@ -2646,7 +5236,7 @@
         <v>14</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C62" s="1">
@@ -2679,7 +5269,7 @@
         <v>15</v>
       </c>
       <c r="B63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C63" s="1">
@@ -2712,7 +5302,7 @@
         <v>16</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C64" s="1">
@@ -2745,7 +5335,7 @@
         <v>17</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C65" s="1">
@@ -2778,7 +5368,7 @@
         <v>18</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C66" s="1">
@@ -2811,7 +5401,7 @@
         <v>19</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C67" s="1">
@@ -2844,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C68" s="1">
@@ -2877,7 +5467,7 @@
         <v>21</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C69" s="1">
@@ -2910,7 +5500,7 @@
         <v>24</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C70" s="1">
@@ -2943,7 +5533,7 @@
         <v>25</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C71" s="1">
@@ -2976,7 +5566,7 @@
         <v>26</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C72" s="1">
@@ -3009,7 +5599,7 @@
         <v>29</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C73" s="1">
@@ -3042,7 +5632,7 @@
         <v>30</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C74" s="1">
@@ -3075,7 +5665,7 @@
         <v>31</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C75" s="1">
@@ -3108,7 +5698,7 @@
         <v>32</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C76" s="1">
@@ -3141,7 +5731,7 @@
         <v>33</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C77" s="1">
@@ -3174,7 +5764,7 @@
         <v>36</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C78" s="1">
@@ -3207,7 +5797,7 @@
         <v>37</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C79" s="1">
@@ -3240,7 +5830,7 @@
         <v>38</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C80" s="1">
@@ -3273,7 +5863,7 @@
         <v>39</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C81" s="1">
@@ -3306,7 +5896,7 @@
         <v>40</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C82" s="1">
@@ -3339,7 +5929,7 @@
         <v>42</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C83" s="1">
@@ -3372,7 +5962,7 @@
         <v>43</v>
       </c>
       <c r="B84" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C84" s="1">
@@ -3405,7 +5995,7 @@
         <v>46</v>
       </c>
       <c r="B85" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C85" s="1">
@@ -3438,7 +6028,7 @@
         <v>48</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C86" s="1">
@@ -3471,7 +6061,7 @@
         <v>62</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C87" s="1">
@@ -3545,31 +6135,31 @@
         <v>200</v>
       </c>
       <c r="D89" s="3">
-        <f t="shared" ref="D89:J89" si="3">SUM(D48:D88)</f>
+        <f t="shared" ref="D89:J89" si="4">SUM(D48:D88)</f>
         <v>129</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
     </row>
@@ -3615,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="3">
-        <f t="shared" ref="B94:B144" si="4" xml:space="preserve"> SUM(C94:J94)</f>
+        <f t="shared" ref="B94:B144" si="5" xml:space="preserve"> SUM(C94:J94)</f>
         <v>37</v>
       </c>
       <c r="C94" s="3">
@@ -3648,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
       <c r="C95" s="3">
@@ -3681,7 +6271,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122</v>
       </c>
       <c r="C96" s="3">
@@ -3714,7 +6304,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="C97" s="3">
@@ -3747,7 +6337,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="C98" s="3">
@@ -3780,7 +6370,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="C99" s="3">
@@ -3813,7 +6403,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="C100" s="3">
@@ -3846,7 +6436,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="C101" s="3">
@@ -3879,7 +6469,7 @@
         <v>8</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C102" s="3">
@@ -3912,7 +6502,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C103" s="3">
@@ -3945,7 +6535,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C104" s="3">
@@ -3978,7 +6568,7 @@
         <v>11</v>
       </c>
       <c r="B105" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C105" s="3">
@@ -4011,7 +6601,7 @@
         <v>12</v>
       </c>
       <c r="B106" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C106" s="3">
@@ -4044,7 +6634,7 @@
         <v>13</v>
       </c>
       <c r="B107" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C107" s="3">
@@ -4077,7 +6667,7 @@
         <v>14</v>
       </c>
       <c r="B108" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C108" s="3">
@@ -4110,7 +6700,7 @@
         <v>15</v>
       </c>
       <c r="B109" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C109" s="3">
@@ -4143,7 +6733,7 @@
         <v>16</v>
       </c>
       <c r="B110" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C110" s="3">
@@ -4176,7 +6766,7 @@
         <v>17</v>
       </c>
       <c r="B111" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C111" s="3">
@@ -4209,7 +6799,7 @@
         <v>18</v>
       </c>
       <c r="B112" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C112" s="3">
@@ -4242,7 +6832,7 @@
         <v>19</v>
       </c>
       <c r="B113" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C113" s="3">
@@ -4275,7 +6865,7 @@
         <v>20</v>
       </c>
       <c r="B114" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C114" s="3">
@@ -4308,7 +6898,7 @@
         <v>21</v>
       </c>
       <c r="B115" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C115" s="3">
@@ -4341,7 +6931,7 @@
         <v>23</v>
       </c>
       <c r="B116" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C116" s="3">
@@ -4374,7 +6964,7 @@
         <v>24</v>
       </c>
       <c r="B117" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C117" s="3">
@@ -4407,7 +6997,7 @@
         <v>25</v>
       </c>
       <c r="B118" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C118" s="3">
@@ -4440,7 +7030,7 @@
         <v>26</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C119" s="3">
@@ -4473,7 +7063,7 @@
         <v>27</v>
       </c>
       <c r="B120" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C120" s="3">
@@ -4506,7 +7096,7 @@
         <v>29</v>
       </c>
       <c r="B121" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C121" s="3">
@@ -4539,7 +7129,7 @@
         <v>30</v>
       </c>
       <c r="B122" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C122" s="3">
@@ -4572,7 +7162,7 @@
         <v>31</v>
       </c>
       <c r="B123" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C123" s="3">
@@ -4605,7 +7195,7 @@
         <v>32</v>
       </c>
       <c r="B124" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C124" s="3">
@@ -4638,7 +7228,7 @@
         <v>34</v>
       </c>
       <c r="B125" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C125" s="3">
@@ -4671,7 +7261,7 @@
         <v>35</v>
       </c>
       <c r="B126" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C126" s="3">
@@ -4704,7 +7294,7 @@
         <v>36</v>
       </c>
       <c r="B127" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C127" s="3">
@@ -4737,7 +7327,7 @@
         <v>37</v>
       </c>
       <c r="B128" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C128" s="3">
@@ -4770,7 +7360,7 @@
         <v>38</v>
       </c>
       <c r="B129" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C129" s="3">
@@ -4803,7 +7393,7 @@
         <v>39</v>
       </c>
       <c r="B130" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C130" s="3">
@@ -4836,7 +7426,7 @@
         <v>40</v>
       </c>
       <c r="B131" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C131" s="3">
@@ -4869,7 +7459,7 @@
         <v>41</v>
       </c>
       <c r="B132" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C132" s="3">
@@ -4902,7 +7492,7 @@
         <v>42</v>
       </c>
       <c r="B133" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C133" s="3">
@@ -4935,7 +7525,7 @@
         <v>43</v>
       </c>
       <c r="B134" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C134" s="3">
@@ -4968,7 +7558,7 @@
         <v>44</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C135" s="3">
@@ -5001,7 +7591,7 @@
         <v>45</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C136" s="3">
@@ -5034,7 +7624,7 @@
         <v>46</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C137" s="3">
@@ -5067,7 +7657,7 @@
         <v>48</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C138" s="3">
@@ -5100,7 +7690,7 @@
         <v>49</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C139" s="3">
@@ -5133,7 +7723,7 @@
         <v>51</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C140" s="3">
@@ -5166,7 +7756,7 @@
         <v>54</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C141" s="3">
@@ -5199,7 +7789,7 @@
         <v>56</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C142" s="3">
@@ -5232,7 +7822,7 @@
         <v>57</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C143" s="3">
@@ -5265,7 +7855,7 @@
         <v>61</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C144" s="3">
@@ -5339,31 +7929,31 @@
         <v>301</v>
       </c>
       <c r="D146" s="3">
-        <f t="shared" ref="D146:J146" si="5">SUM(D94:D145)</f>
+        <f t="shared" ref="D146:J146" si="6">SUM(D94:D145)</f>
         <v>96</v>
       </c>
       <c r="E146" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="F146" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>116</v>
       </c>
       <c r="G146" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="H146" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="I146" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="J146" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -5409,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" ref="B151:B198" si="6" xml:space="preserve"> SUM(C151:J151)</f>
+        <f t="shared" ref="B151:B198" si="7" xml:space="preserve"> SUM(C151:J151)</f>
         <v>82</v>
       </c>
       <c r="C151" s="3">
@@ -5442,7 +8032,7 @@
         <v>1</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>183</v>
       </c>
       <c r="C152" s="3">
@@ -5475,7 +8065,7 @@
         <v>2</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="C153" s="3">
@@ -5508,7 +8098,7 @@
         <v>3</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141</v>
       </c>
       <c r="C154" s="3">
@@ -5541,7 +8131,7 @@
         <v>4</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="C155" s="3">
@@ -5574,7 +8164,7 @@
         <v>5</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="C156" s="3">
@@ -5607,7 +8197,7 @@
         <v>6</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="C157" s="3">
@@ -5640,7 +8230,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="C158" s="3">
@@ -5673,7 +8263,7 @@
         <v>8</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C159" s="3">
@@ -5706,7 +8296,7 @@
         <v>9</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C160" s="3">
@@ -5739,7 +8329,7 @@
         <v>10</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C161" s="3">
@@ -5772,7 +8362,7 @@
         <v>11</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C162" s="3">
@@ -5805,7 +8395,7 @@
         <v>12</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C163" s="3">
@@ -5838,7 +8428,7 @@
         <v>13</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C164" s="3">
@@ -5871,7 +8461,7 @@
         <v>14</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C165" s="3">
@@ -5904,7 +8494,7 @@
         <v>15</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C166" s="3">
@@ -5937,7 +8527,7 @@
         <v>16</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C167" s="3">
@@ -5970,7 +8560,7 @@
         <v>17</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C168" s="3">
@@ -6003,7 +8593,7 @@
         <v>18</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C169" s="3">
@@ -6036,7 +8626,7 @@
         <v>19</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C170" s="3">
@@ -6069,7 +8659,7 @@
         <v>20</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C171" s="3">
@@ -6102,7 +8692,7 @@
         <v>21</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C172" s="3">
@@ -6135,7 +8725,7 @@
         <v>22</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C173" s="3">
@@ -6168,7 +8758,7 @@
         <v>23</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C174" s="3">
@@ -6201,7 +8791,7 @@
         <v>24</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C175" s="3">
@@ -6234,7 +8824,7 @@
         <v>25</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C176" s="3">
@@ -6267,7 +8857,7 @@
         <v>26</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C177" s="3">
@@ -6300,7 +8890,7 @@
         <v>27</v>
       </c>
       <c r="B178" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C178" s="3">
@@ -6333,7 +8923,7 @@
         <v>28</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C179" s="3">
@@ -6366,7 +8956,7 @@
         <v>29</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C180" s="3">
@@ -6399,7 +8989,7 @@
         <v>30</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C181" s="3">
@@ -6432,7 +9022,7 @@
         <v>31</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C182" s="3">
@@ -6465,7 +9055,7 @@
         <v>32</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C183" s="3">
@@ -6498,7 +9088,7 @@
         <v>33</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C184" s="3">
@@ -6531,7 +9121,7 @@
         <v>34</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C185" s="3">
@@ -6564,7 +9154,7 @@
         <v>36</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C186" s="3">
@@ -6597,7 +9187,7 @@
         <v>39</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C187" s="3">
@@ -6630,7 +9220,7 @@
         <v>40</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C188" s="3">
@@ -6663,7 +9253,7 @@
         <v>41</v>
       </c>
       <c r="B189" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C189" s="3">
@@ -6696,7 +9286,7 @@
         <v>43</v>
       </c>
       <c r="B190" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C190" s="3">
@@ -6729,7 +9319,7 @@
         <v>44</v>
       </c>
       <c r="B191" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C191" s="3">
@@ -6762,7 +9352,7 @@
         <v>47</v>
       </c>
       <c r="B192" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C192" s="3">
@@ -6795,7 +9385,7 @@
         <v>48</v>
       </c>
       <c r="B193" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C193" s="3">
@@ -6828,7 +9418,7 @@
         <v>50</v>
       </c>
       <c r="B194" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C194" s="3">
@@ -6861,7 +9451,7 @@
         <v>53</v>
       </c>
       <c r="B195" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C195" s="3">
@@ -6894,7 +9484,7 @@
         <v>58</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C196" s="3">
@@ -6927,7 +9517,7 @@
         <v>65</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C197" s="3">
@@ -6960,7 +9550,7 @@
         <v>67</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C198" s="3">
@@ -7034,31 +9624,31 @@
         <v>270</v>
       </c>
       <c r="D200" s="3">
-        <f t="shared" ref="D200:J200" si="7">SUM(D151:D199)</f>
+        <f t="shared" ref="D200:J200" si="8">SUM(D151:D199)</f>
         <v>229</v>
       </c>
       <c r="E200" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="F200" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>196</v>
       </c>
       <c r="G200" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="H200" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="I200" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="J200" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -7104,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="B205" s="3">
-        <f t="shared" ref="B205:B241" si="8" xml:space="preserve"> SUM(C205:J205)</f>
+        <f t="shared" ref="B205:B241" si="9" xml:space="preserve"> SUM(C205:J205)</f>
         <v>69</v>
       </c>
       <c r="C205" s="3">
@@ -7137,7 +9727,7 @@
         <v>1</v>
       </c>
       <c r="B206" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>114</v>
       </c>
       <c r="C206" s="3">
@@ -7170,7 +9760,7 @@
         <v>2</v>
       </c>
       <c r="B207" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>119</v>
       </c>
       <c r="C207" s="3">
@@ -7203,7 +9793,7 @@
         <v>3</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>129</v>
       </c>
       <c r="C208" s="3">
@@ -7236,7 +9826,7 @@
         <v>4</v>
       </c>
       <c r="B209" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>72</v>
       </c>
       <c r="C209" s="3">
@@ -7269,7 +9859,7 @@
         <v>5</v>
       </c>
       <c r="B210" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="C210" s="3">
@@ -7302,7 +9892,7 @@
         <v>6</v>
       </c>
       <c r="B211" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="C211" s="3">
@@ -7335,7 +9925,7 @@
         <v>7</v>
       </c>
       <c r="B212" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="C212" s="3">
@@ -7368,7 +9958,7 @@
         <v>8</v>
       </c>
       <c r="B213" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C213" s="3">
@@ -7401,7 +9991,7 @@
         <v>9</v>
       </c>
       <c r="B214" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C214" s="3">
@@ -7434,7 +10024,7 @@
         <v>10</v>
       </c>
       <c r="B215" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C215" s="3">
@@ -7467,7 +10057,7 @@
         <v>11</v>
       </c>
       <c r="B216" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="C216" s="3">
@@ -7500,7 +10090,7 @@
         <v>12</v>
       </c>
       <c r="B217" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="C217" s="3">
@@ -7533,7 +10123,7 @@
         <v>13</v>
       </c>
       <c r="B218" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C218" s="3">
@@ -7566,7 +10156,7 @@
         <v>14</v>
       </c>
       <c r="B219" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C219" s="3">
@@ -7599,7 +10189,7 @@
         <v>15</v>
       </c>
       <c r="B220" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C220" s="3">
@@ -7632,7 +10222,7 @@
         <v>16</v>
       </c>
       <c r="B221" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C221" s="3">
@@ -7665,7 +10255,7 @@
         <v>17</v>
       </c>
       <c r="B222" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C222" s="3">
@@ -7698,7 +10288,7 @@
         <v>18</v>
       </c>
       <c r="B223" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C223" s="3">
@@ -7731,7 +10321,7 @@
         <v>19</v>
       </c>
       <c r="B224" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C224" s="3">
@@ -7764,7 +10354,7 @@
         <v>20</v>
       </c>
       <c r="B225" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C225" s="3">
@@ -7797,7 +10387,7 @@
         <v>21</v>
       </c>
       <c r="B226" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C226" s="3">
@@ -7830,7 +10420,7 @@
         <v>22</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C227" s="3">
@@ -7863,7 +10453,7 @@
         <v>23</v>
       </c>
       <c r="B228" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C228" s="3">
@@ -7896,7 +10486,7 @@
         <v>24</v>
       </c>
       <c r="B229" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C229" s="3">
@@ -7929,7 +10519,7 @@
         <v>25</v>
       </c>
       <c r="B230" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C230" s="3">
@@ -7962,7 +10552,7 @@
         <v>26</v>
       </c>
       <c r="B231" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C231" s="3">
@@ -7995,7 +10585,7 @@
         <v>27</v>
       </c>
       <c r="B232" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C232" s="3">
@@ -8028,7 +10618,7 @@
         <v>28</v>
       </c>
       <c r="B233" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C233" s="3">
@@ -8061,7 +10651,7 @@
         <v>33</v>
       </c>
       <c r="B234" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C234" s="3">
@@ -8094,7 +10684,7 @@
         <v>37</v>
       </c>
       <c r="B235" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C235" s="3">
@@ -8127,7 +10717,7 @@
         <v>40</v>
       </c>
       <c r="B236" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C236" s="3">
@@ -8160,7 +10750,7 @@
         <v>41</v>
       </c>
       <c r="B237" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C237" s="3">
@@ -8193,7 +10783,7 @@
         <v>42</v>
       </c>
       <c r="B238" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C238" s="3">
@@ -8226,7 +10816,7 @@
         <v>43</v>
       </c>
       <c r="B239" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C239" s="3">
@@ -8259,7 +10849,7 @@
         <v>44</v>
       </c>
       <c r="B240" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C240" s="3">
@@ -8292,7 +10882,7 @@
         <v>46</v>
       </c>
       <c r="B241" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C241" s="3">
@@ -8362,35 +10952,35 @@
         <v>654</v>
       </c>
       <c r="C243" s="3">
-        <f t="shared" ref="C243:J243" si="9">SUM(C205:C242)</f>
+        <f t="shared" ref="C243:J243" si="10">SUM(C205:C242)</f>
         <v>190</v>
       </c>
       <c r="D243" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>166</v>
       </c>
       <c r="E243" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120</v>
       </c>
       <c r="F243" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="G243" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="H243" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="I243" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="J243" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
@@ -8436,7 +11026,7 @@
         <v>0</v>
       </c>
       <c r="B248" s="3">
-        <f t="shared" ref="B248:B291" si="10" xml:space="preserve"> SUM(C248:J248)</f>
+        <f t="shared" ref="B248:B291" si="11" xml:space="preserve"> SUM(C248:J248)</f>
         <v>111</v>
       </c>
       <c r="C248" s="3">
@@ -8469,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="B249" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>180</v>
       </c>
       <c r="C249" s="3">
@@ -8502,7 +11092,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>154</v>
       </c>
       <c r="C250" s="3">
@@ -8535,7 +11125,7 @@
         <v>3</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="C251" s="3">
@@ -8568,7 +11158,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>58</v>
       </c>
       <c r="C252" s="3">
@@ -8601,7 +11191,7 @@
         <v>5</v>
       </c>
       <c r="B253" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="C253" s="3">
@@ -8634,7 +11224,7 @@
         <v>6</v>
       </c>
       <c r="B254" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="C254" s="3">
@@ -8667,7 +11257,7 @@
         <v>7</v>
       </c>
       <c r="B255" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="C255" s="3">
@@ -8700,7 +11290,7 @@
         <v>8</v>
       </c>
       <c r="B256" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="C256" s="3">
@@ -8733,7 +11323,7 @@
         <v>9</v>
       </c>
       <c r="B257" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="C257" s="3">
@@ -8766,7 +11356,7 @@
         <v>10</v>
       </c>
       <c r="B258" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C258" s="3">
@@ -8799,7 +11389,7 @@
         <v>11</v>
       </c>
       <c r="B259" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C259" s="3">
@@ -8832,7 +11422,7 @@
         <v>12</v>
       </c>
       <c r="B260" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="C260" s="3">
@@ -8865,7 +11455,7 @@
         <v>13</v>
       </c>
       <c r="B261" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C261" s="3">
@@ -8898,7 +11488,7 @@
         <v>14</v>
       </c>
       <c r="B262" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C262" s="3">
@@ -8931,7 +11521,7 @@
         <v>15</v>
       </c>
       <c r="B263" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C263" s="3">
@@ -8964,7 +11554,7 @@
         <v>16</v>
       </c>
       <c r="B264" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C264" s="3">
@@ -8997,7 +11587,7 @@
         <v>17</v>
       </c>
       <c r="B265" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C265" s="3">
@@ -9030,7 +11620,7 @@
         <v>18</v>
       </c>
       <c r="B266" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C266" s="3">
@@ -9063,7 +11653,7 @@
         <v>19</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C267" s="3">
@@ -9096,7 +11686,7 @@
         <v>21</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C268" s="3">
@@ -9129,7 +11719,7 @@
         <v>22</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C269" s="3">
@@ -9162,7 +11752,7 @@
         <v>23</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C270" s="3">
@@ -9195,7 +11785,7 @@
         <v>24</v>
       </c>
       <c r="B271" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C271" s="3">
@@ -9228,7 +11818,7 @@
         <v>25</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C272" s="3">
@@ -9261,7 +11851,7 @@
         <v>26</v>
       </c>
       <c r="B273" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C273" s="3">
@@ -9294,7 +11884,7 @@
         <v>27</v>
       </c>
       <c r="B274" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C274" s="3">
@@ -9327,7 +11917,7 @@
         <v>28</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C275" s="3">
@@ -9360,7 +11950,7 @@
         <v>29</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C276" s="3">
@@ -9393,7 +11983,7 @@
         <v>30</v>
       </c>
       <c r="B277" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C277" s="3">
@@ -9426,7 +12016,7 @@
         <v>31</v>
       </c>
       <c r="B278" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C278" s="3">
@@ -9459,7 +12049,7 @@
         <v>32</v>
       </c>
       <c r="B279" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C279" s="3">
@@ -9492,7 +12082,7 @@
         <v>33</v>
       </c>
       <c r="B280" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C280" s="3">
@@ -9525,7 +12115,7 @@
         <v>34</v>
       </c>
       <c r="B281" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C281" s="3">
@@ -9558,7 +12148,7 @@
         <v>35</v>
       </c>
       <c r="B282" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C282" s="3">
@@ -9591,7 +12181,7 @@
         <v>36</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C283" s="3">
@@ -9624,7 +12214,7 @@
         <v>37</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C284" s="3">
@@ -9657,7 +12247,7 @@
         <v>38</v>
       </c>
       <c r="B285" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C285" s="3">
@@ -9690,7 +12280,7 @@
         <v>39</v>
       </c>
       <c r="B286" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C286" s="3">
@@ -9723,7 +12313,7 @@
         <v>40</v>
       </c>
       <c r="B287" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C287" s="3">
@@ -9756,7 +12346,7 @@
         <v>41</v>
       </c>
       <c r="B288" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C288" s="3">
@@ -9789,7 +12379,7 @@
         <v>42</v>
       </c>
       <c r="B289" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C289" s="3">
@@ -9822,7 +12412,7 @@
         <v>43</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C290" s="3">
@@ -9855,7 +12445,7 @@
         <v>46</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C291" s="3">
@@ -9925,41 +12515,42 @@
         <v>807</v>
       </c>
       <c r="C293" s="3">
-        <f t="shared" ref="C293:J293" si="11">SUM(C248:C292)</f>
+        <f t="shared" ref="C293:J293" si="12">SUM(C248:C292)</f>
         <v>204</v>
       </c>
       <c r="D293" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>124</v>
       </c>
       <c r="E293" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>148</v>
       </c>
       <c r="F293" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>175</v>
       </c>
       <c r="G293" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
       <c r="H293" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
       <c r="I293" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
       <c r="J293" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9970,10 +12561,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J315"/>
+  <dimension ref="A1:S315"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9984,12 +12575,12 @@
     <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10020,8 +12611,32 @@
       <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -10053,8 +12668,40 @@
       <c r="J3" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="6">
+        <f>SUMPRODUCT($A$3:$A$55,C3:C55)/SUM(C3:C55)</f>
+        <v>3.2542372881355934</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:S3" si="1">SUMPRODUCT($A$3:$A$55,D3:D55)/SUM(D3:D55)</f>
+        <v>18.021276595744681</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6446280991735538</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="1"/>
+        <v>0.36486486486486486</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1194029850746268</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5925925925925926</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -10087,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -10120,7 +12767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -10153,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -10186,7 +12833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -10219,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -10252,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -10285,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -10318,7 +12965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -10351,7 +12998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -10384,7 +13031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -10417,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -10450,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -11779,35 +14426,35 @@
         <v>940</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" ref="C56:J56" si="1">SUM(C3:C55)</f>
+        <f t="shared" ref="C56:J56" si="2">SUM(C3:C55)</f>
         <v>236</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -11853,7 +14500,7 @@
         <v>0</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" ref="B62:B82" si="2" xml:space="preserve"> SUM(C62:J62)</f>
+        <f t="shared" ref="B62:B82" si="3" xml:space="preserve"> SUM(C62:J62)</f>
         <v>256</v>
       </c>
       <c r="C62" s="3">
@@ -11886,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="B63" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="C63" s="3">
@@ -11919,7 +14566,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="C64" s="3">
@@ -11952,7 +14599,7 @@
         <v>3</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="C65" s="3">
@@ -11985,7 +14632,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="C66" s="3">
@@ -12018,7 +14665,7 @@
         <v>5</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C67" s="3">
@@ -12051,7 +14698,7 @@
         <v>6</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C68" s="3">
@@ -12084,7 +14731,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="C69" s="3">
@@ -12117,7 +14764,7 @@
         <v>8</v>
       </c>
       <c r="B70" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="C70" s="3">
@@ -12150,7 +14797,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C71" s="3">
@@ -12183,7 +14830,7 @@
         <v>10</v>
       </c>
       <c r="B72" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C72" s="3">
@@ -12216,7 +14863,7 @@
         <v>11</v>
       </c>
       <c r="B73" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="C73" s="3">
@@ -12249,7 +14896,7 @@
         <v>12</v>
       </c>
       <c r="B74" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C74" s="3">
@@ -12282,7 +14929,7 @@
         <v>13</v>
       </c>
       <c r="B75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="C75" s="3">
@@ -12315,7 +14962,7 @@
         <v>14</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C76" s="3">
@@ -12348,7 +14995,7 @@
         <v>15</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C77" s="3">
@@ -12381,7 +15028,7 @@
         <v>17</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C78" s="3">
@@ -12414,7 +15061,7 @@
         <v>18</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="C79" s="3">
@@ -12447,7 +15094,7 @@
         <v>20</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C80" s="3">
@@ -12480,7 +15127,7 @@
         <v>23</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C81" s="3">
@@ -12513,7 +15160,7 @@
         <v>31</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C82" s="3">
@@ -12546,39 +15193,39 @@
         <v>10</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" ref="B83:J83" si="3">SUM(B62:B82)</f>
+        <f t="shared" ref="B83:J83" si="4">SUM(B62:B82)</f>
         <v>518</v>
       </c>
       <c r="C83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167</v>
       </c>
       <c r="D83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="F83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="H83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
@@ -12624,7 +15271,7 @@
         <v>0</v>
       </c>
       <c r="B88" s="3">
-        <f t="shared" ref="B88:B127" si="4" xml:space="preserve"> SUM(C88:J88)</f>
+        <f t="shared" ref="B88:B127" si="5" xml:space="preserve"> SUM(C88:J88)</f>
         <v>221</v>
       </c>
       <c r="C88" s="3">
@@ -12657,7 +15304,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="C89" s="3">
@@ -12690,7 +15337,7 @@
         <v>2</v>
       </c>
       <c r="B90" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="C90" s="3">
@@ -12723,7 +15370,7 @@
         <v>3</v>
       </c>
       <c r="B91" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="C91" s="3">
@@ -12756,7 +15403,7 @@
         <v>4</v>
       </c>
       <c r="B92" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C92" s="3">
@@ -12789,7 +15436,7 @@
         <v>5</v>
       </c>
       <c r="B93" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C93" s="3">
@@ -12822,7 +15469,7 @@
         <v>6</v>
       </c>
       <c r="B94" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C94" s="3">
@@ -12855,7 +15502,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="C95" s="3">
@@ -12888,7 +15535,7 @@
         <v>8</v>
       </c>
       <c r="B96" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C96" s="3">
@@ -12921,7 +15568,7 @@
         <v>9</v>
       </c>
       <c r="B97" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C97" s="3">
@@ -12954,7 +15601,7 @@
         <v>10</v>
       </c>
       <c r="B98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C98" s="3">
@@ -12987,7 +15634,7 @@
         <v>11</v>
       </c>
       <c r="B99" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C99" s="3">
@@ -13020,7 +15667,7 @@
         <v>12</v>
       </c>
       <c r="B100" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C100" s="3">
@@ -13053,7 +15700,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C101" s="3">
@@ -13086,7 +15733,7 @@
         <v>14</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C102" s="3">
@@ -13119,7 +15766,7 @@
         <v>15</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C103" s="3">
@@ -13152,7 +15799,7 @@
         <v>16</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C104" s="3">
@@ -13185,7 +15832,7 @@
         <v>17</v>
       </c>
       <c r="B105" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C105" s="3">
@@ -13218,7 +15865,7 @@
         <v>18</v>
       </c>
       <c r="B106" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C106" s="3">
@@ -13251,7 +15898,7 @@
         <v>19</v>
       </c>
       <c r="B107" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C107" s="3">
@@ -13284,7 +15931,7 @@
         <v>20</v>
       </c>
       <c r="B108" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C108" s="3">
@@ -13317,7 +15964,7 @@
         <v>21</v>
       </c>
       <c r="B109" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C109" s="3">
@@ -13350,7 +15997,7 @@
         <v>22</v>
       </c>
       <c r="B110" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C110" s="3">
@@ -13383,7 +16030,7 @@
         <v>23</v>
       </c>
       <c r="B111" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C111" s="3">
@@ -13416,7 +16063,7 @@
         <v>24</v>
       </c>
       <c r="B112" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C112" s="3">
@@ -13449,7 +16096,7 @@
         <v>25</v>
       </c>
       <c r="B113" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C113" s="3">
@@ -13482,7 +16129,7 @@
         <v>27</v>
       </c>
       <c r="B114" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C114" s="3">
@@ -13515,7 +16162,7 @@
         <v>28</v>
       </c>
       <c r="B115" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C115" s="3">
@@ -13548,7 +16195,7 @@
         <v>29</v>
       </c>
       <c r="B116" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C116" s="3">
@@ -13581,7 +16228,7 @@
         <v>30</v>
       </c>
       <c r="B117" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C117" s="3">
@@ -13614,7 +16261,7 @@
         <v>31</v>
       </c>
       <c r="B118" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C118" s="3">
@@ -13647,7 +16294,7 @@
         <v>32</v>
       </c>
       <c r="B119" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C119" s="3">
@@ -13680,7 +16327,7 @@
         <v>34</v>
       </c>
       <c r="B120" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C120" s="3">
@@ -13713,7 +16360,7 @@
         <v>35</v>
       </c>
       <c r="B121" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C121" s="3">
@@ -13746,7 +16393,7 @@
         <v>37</v>
       </c>
       <c r="B122" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C122" s="3">
@@ -13779,7 +16426,7 @@
         <v>38</v>
       </c>
       <c r="B123" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C123" s="3">
@@ -13812,7 +16459,7 @@
         <v>40</v>
       </c>
       <c r="B124" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C124" s="3">
@@ -13845,7 +16492,7 @@
         <v>41</v>
       </c>
       <c r="B125" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C125" s="3">
@@ -13878,7 +16525,7 @@
         <v>46</v>
       </c>
       <c r="B126" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C126" s="3">
@@ -13911,7 +16558,7 @@
         <v>47</v>
       </c>
       <c r="B127" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C127" s="3">
@@ -13981,35 +16628,35 @@
         <v>502</v>
       </c>
       <c r="C129" s="3">
-        <f t="shared" ref="C129:J129" si="5">SUM(C88:C128)</f>
+        <f t="shared" ref="C129:J129" si="6">SUM(C88:C128)</f>
         <v>191</v>
       </c>
       <c r="D129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="E129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="F129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89</v>
       </c>
       <c r="G129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="H129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="I129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="J129" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
     </row>
@@ -14055,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="3">
-        <f t="shared" ref="B135:B188" si="6" xml:space="preserve"> SUM(C135:J135)</f>
+        <f t="shared" ref="B135:B188" si="7" xml:space="preserve"> SUM(C135:J135)</f>
         <v>246</v>
       </c>
       <c r="C135" s="3">
@@ -14088,7 +16735,7 @@
         <v>1</v>
       </c>
       <c r="B136" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>74</v>
       </c>
       <c r="C136" s="3">
@@ -14121,7 +16768,7 @@
         <v>2</v>
       </c>
       <c r="B137" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="C137" s="3">
@@ -14154,7 +16801,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="C138" s="3">
@@ -14187,7 +16834,7 @@
         <v>4</v>
       </c>
       <c r="B139" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="C139" s="3">
@@ -14220,7 +16867,7 @@
         <v>5</v>
       </c>
       <c r="B140" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="C140" s="3">
@@ -14253,7 +16900,7 @@
         <v>6</v>
       </c>
       <c r="B141" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C141" s="3">
@@ -14286,7 +16933,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C142" s="3">
@@ -14319,7 +16966,7 @@
         <v>8</v>
       </c>
       <c r="B143" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C143" s="3">
@@ -14352,7 +16999,7 @@
         <v>9</v>
       </c>
       <c r="B144" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C144" s="3">
@@ -14385,7 +17032,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C145" s="3">
@@ -14418,7 +17065,7 @@
         <v>11</v>
       </c>
       <c r="B146" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C146" s="3">
@@ -14451,7 +17098,7 @@
         <v>12</v>
       </c>
       <c r="B147" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C147" s="3">
@@ -14484,7 +17131,7 @@
         <v>13</v>
       </c>
       <c r="B148" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C148" s="3">
@@ -14517,7 +17164,7 @@
         <v>14</v>
       </c>
       <c r="B149" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C149" s="3">
@@ -14550,7 +17197,7 @@
         <v>15</v>
       </c>
       <c r="B150" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C150" s="3">
@@ -14583,7 +17230,7 @@
         <v>16</v>
       </c>
       <c r="B151" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C151" s="3">
@@ -14616,7 +17263,7 @@
         <v>17</v>
       </c>
       <c r="B152" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C152" s="3">
@@ -14649,7 +17296,7 @@
         <v>18</v>
       </c>
       <c r="B153" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C153" s="3">
@@ -14682,7 +17329,7 @@
         <v>19</v>
       </c>
       <c r="B154" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C154" s="3">
@@ -14715,7 +17362,7 @@
         <v>20</v>
       </c>
       <c r="B155" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C155" s="3">
@@ -14748,7 +17395,7 @@
         <v>21</v>
       </c>
       <c r="B156" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C156" s="3">
@@ -14781,7 +17428,7 @@
         <v>22</v>
       </c>
       <c r="B157" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C157" s="3">
@@ -14814,7 +17461,7 @@
         <v>24</v>
       </c>
       <c r="B158" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C158" s="3">
@@ -14847,7 +17494,7 @@
         <v>25</v>
       </c>
       <c r="B159" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C159" s="3">
@@ -14880,7 +17527,7 @@
         <v>26</v>
       </c>
       <c r="B160" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C160" s="3">
@@ -14913,7 +17560,7 @@
         <v>27</v>
       </c>
       <c r="B161" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C161" s="3">
@@ -14946,7 +17593,7 @@
         <v>28</v>
       </c>
       <c r="B162" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C162" s="3">
@@ -14979,7 +17626,7 @@
         <v>29</v>
       </c>
       <c r="B163" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="C163" s="3">
@@ -15012,7 +17659,7 @@
         <v>30</v>
       </c>
       <c r="B164" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C164" s="3">
@@ -15045,7 +17692,7 @@
         <v>31</v>
       </c>
       <c r="B165" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C165" s="3">
@@ -15078,7 +17725,7 @@
         <v>32</v>
       </c>
       <c r="B166" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C166" s="3">
@@ -15111,7 +17758,7 @@
         <v>34</v>
       </c>
       <c r="B167" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C167" s="3">
@@ -15144,7 +17791,7 @@
         <v>35</v>
       </c>
       <c r="B168" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C168" s="3">
@@ -15177,7 +17824,7 @@
         <v>36</v>
       </c>
       <c r="B169" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C169" s="3">
@@ -15210,7 +17857,7 @@
         <v>37</v>
       </c>
       <c r="B170" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C170" s="3">
@@ -15243,7 +17890,7 @@
         <v>38</v>
       </c>
       <c r="B171" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C171" s="3">
@@ -15276,7 +17923,7 @@
         <v>39</v>
       </c>
       <c r="B172" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C172" s="3">
@@ -15309,7 +17956,7 @@
         <v>40</v>
       </c>
       <c r="B173" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C173" s="3">
@@ -15342,7 +17989,7 @@
         <v>41</v>
       </c>
       <c r="B174" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C174" s="3">
@@ -15375,7 +18022,7 @@
         <v>42</v>
       </c>
       <c r="B175" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C175" s="3">
@@ -15408,7 +18055,7 @@
         <v>43</v>
       </c>
       <c r="B176" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C176" s="3">
@@ -15441,7 +18088,7 @@
         <v>44</v>
       </c>
       <c r="B177" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C177" s="3">
@@ -15474,7 +18121,7 @@
         <v>45</v>
       </c>
       <c r="B178" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C178" s="3">
@@ -15507,7 +18154,7 @@
         <v>48</v>
       </c>
       <c r="B179" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C179" s="3">
@@ -15540,7 +18187,7 @@
         <v>49</v>
       </c>
       <c r="B180" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C180" s="3">
@@ -15573,7 +18220,7 @@
         <v>52</v>
       </c>
       <c r="B181" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="C181" s="3">
@@ -15606,7 +18253,7 @@
         <v>53</v>
       </c>
       <c r="B182" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C182" s="3">
@@ -15639,7 +18286,7 @@
         <v>55</v>
       </c>
       <c r="B183" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C183" s="3">
@@ -15672,7 +18319,7 @@
         <v>57</v>
       </c>
       <c r="B184" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C184" s="3">
@@ -15705,7 +18352,7 @@
         <v>64</v>
       </c>
       <c r="B185" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C185" s="3">
@@ -15738,7 +18385,7 @@
         <v>66</v>
       </c>
       <c r="B186" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C186" s="3">
@@ -15771,7 +18418,7 @@
         <v>69</v>
       </c>
       <c r="B187" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C187" s="3">
@@ -15804,7 +18451,7 @@
         <v>71</v>
       </c>
       <c r="B188" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C188" s="3">
@@ -15874,35 +18521,35 @@
         <v>690</v>
       </c>
       <c r="C190" s="3">
-        <f t="shared" ref="C190:J190" si="7">SUM(C135:C189)</f>
+        <f t="shared" ref="C190:J190" si="8">SUM(C135:C189)</f>
         <v>173</v>
       </c>
       <c r="D190" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>219</v>
       </c>
       <c r="E190" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="F190" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="G190" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="H190" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="I190" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="J190" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -15948,7 +18595,7 @@
         <v>0</v>
       </c>
       <c r="B196" s="3">
-        <f t="shared" ref="B196:B253" si="8" xml:space="preserve"> SUM(C196:J196)</f>
+        <f t="shared" ref="B196:B253" si="9" xml:space="preserve"> SUM(C196:J196)</f>
         <v>300</v>
       </c>
       <c r="C196" s="3">
@@ -15981,7 +18628,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="C197" s="3">
@@ -16014,7 +18661,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="C198" s="3">
@@ -16047,7 +18694,7 @@
         <v>3</v>
       </c>
       <c r="B199" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="C199" s="3">
@@ -16080,7 +18727,7 @@
         <v>4</v>
       </c>
       <c r="B200" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="C200" s="3">
@@ -16113,7 +18760,7 @@
         <v>5</v>
       </c>
       <c r="B201" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="C201" s="3">
@@ -16146,7 +18793,7 @@
         <v>6</v>
       </c>
       <c r="B202" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="C202" s="3">
@@ -16179,7 +18826,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="C203" s="3">
@@ -16212,7 +18859,7 @@
         <v>8</v>
       </c>
       <c r="B204" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C204" s="3">
@@ -16245,7 +18892,7 @@
         <v>9</v>
       </c>
       <c r="B205" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="C205" s="3">
@@ -16278,7 +18925,7 @@
         <v>10</v>
       </c>
       <c r="B206" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="C206" s="3">
@@ -16311,7 +18958,7 @@
         <v>11</v>
       </c>
       <c r="B207" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C207" s="3">
@@ -16344,7 +18991,7 @@
         <v>12</v>
       </c>
       <c r="B208" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="C208" s="3">
@@ -16377,7 +19024,7 @@
         <v>13</v>
       </c>
       <c r="B209" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="C209" s="3">
@@ -16410,7 +19057,7 @@
         <v>14</v>
       </c>
       <c r="B210" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="C210" s="3">
@@ -16443,7 +19090,7 @@
         <v>15</v>
       </c>
       <c r="B211" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C211" s="3">
@@ -16476,7 +19123,7 @@
         <v>16</v>
       </c>
       <c r="B212" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="C212" s="3">
@@ -16509,7 +19156,7 @@
         <v>17</v>
       </c>
       <c r="B213" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C213" s="3">
@@ -16542,7 +19189,7 @@
         <v>18</v>
       </c>
       <c r="B214" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C214" s="3">
@@ -16575,7 +19222,7 @@
         <v>19</v>
       </c>
       <c r="B215" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C215" s="3">
@@ -16608,7 +19255,7 @@
         <v>20</v>
       </c>
       <c r="B216" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C216" s="3">
@@ -16641,7 +19288,7 @@
         <v>21</v>
       </c>
       <c r="B217" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="C217" s="3">
@@ -16674,7 +19321,7 @@
         <v>22</v>
       </c>
       <c r="B218" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C218" s="3">
@@ -16707,7 +19354,7 @@
         <v>23</v>
       </c>
       <c r="B219" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="C219" s="3">
@@ -16740,7 +19387,7 @@
         <v>24</v>
       </c>
       <c r="B220" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C220" s="3">
@@ -16773,7 +19420,7 @@
         <v>25</v>
       </c>
       <c r="B221" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C221" s="3">
@@ -16806,7 +19453,7 @@
         <v>26</v>
       </c>
       <c r="B222" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C222" s="3">
@@ -16839,7 +19486,7 @@
         <v>27</v>
       </c>
       <c r="B223" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C223" s="3">
@@ -16872,7 +19519,7 @@
         <v>28</v>
       </c>
       <c r="B224" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C224" s="3">
@@ -16905,7 +19552,7 @@
         <v>29</v>
       </c>
       <c r="B225" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C225" s="3">
@@ -16938,7 +19585,7 @@
         <v>30</v>
       </c>
       <c r="B226" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C226" s="3">
@@ -16971,7 +19618,7 @@
         <v>31</v>
       </c>
       <c r="B227" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C227" s="3">
@@ -17004,7 +19651,7 @@
         <v>32</v>
       </c>
       <c r="B228" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C228" s="3">
@@ -17037,7 +19684,7 @@
         <v>33</v>
       </c>
       <c r="B229" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C229" s="3">
@@ -17070,7 +19717,7 @@
         <v>34</v>
       </c>
       <c r="B230" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C230" s="3">
@@ -17103,7 +19750,7 @@
         <v>36</v>
       </c>
       <c r="B231" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="C231" s="3">
@@ -17136,7 +19783,7 @@
         <v>37</v>
       </c>
       <c r="B232" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C232" s="3">
@@ -17169,7 +19816,7 @@
         <v>38</v>
       </c>
       <c r="B233" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C233" s="3">
@@ -17202,7 +19849,7 @@
         <v>39</v>
       </c>
       <c r="B234" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C234" s="3">
@@ -17235,7 +19882,7 @@
         <v>40</v>
       </c>
       <c r="B235" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C235" s="3">
@@ -17268,7 +19915,7 @@
         <v>41</v>
       </c>
       <c r="B236" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C236" s="3">
@@ -17301,7 +19948,7 @@
         <v>42</v>
       </c>
       <c r="B237" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C237" s="3">
@@ -17334,7 +19981,7 @@
         <v>43</v>
       </c>
       <c r="B238" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="C238" s="3">
@@ -17367,7 +20014,7 @@
         <v>45</v>
       </c>
       <c r="B239" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C239" s="3">
@@ -17400,7 +20047,7 @@
         <v>46</v>
       </c>
       <c r="B240" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C240" s="3">
@@ -17433,7 +20080,7 @@
         <v>47</v>
       </c>
       <c r="B241" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C241" s="3">
@@ -17466,7 +20113,7 @@
         <v>48</v>
       </c>
       <c r="B242" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C242" s="3">
@@ -17499,7 +20146,7 @@
         <v>49</v>
       </c>
       <c r="B243" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C243" s="3">
@@ -17532,7 +20179,7 @@
         <v>51</v>
       </c>
       <c r="B244" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C244" s="3">
@@ -17565,7 +20212,7 @@
         <v>52</v>
       </c>
       <c r="B245" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C245" s="3">
@@ -17598,7 +20245,7 @@
         <v>53</v>
       </c>
       <c r="B246" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C246" s="3">
@@ -17631,7 +20278,7 @@
         <v>54</v>
       </c>
       <c r="B247" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C247" s="3">
@@ -17664,7 +20311,7 @@
         <v>55</v>
       </c>
       <c r="B248" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C248" s="3">
@@ -17697,7 +20344,7 @@
         <v>56</v>
       </c>
       <c r="B249" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C249" s="3">
@@ -17730,7 +20377,7 @@
         <v>60</v>
       </c>
       <c r="B250" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C250" s="3">
@@ -17763,7 +20410,7 @@
         <v>65</v>
       </c>
       <c r="B251" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C251" s="3">
@@ -17796,7 +20443,7 @@
         <v>70</v>
       </c>
       <c r="B252" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C252" s="3">
@@ -17829,7 +20476,7 @@
         <v>71</v>
       </c>
       <c r="B253" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C253" s="3">
@@ -17899,35 +20546,35 @@
         <v>798</v>
       </c>
       <c r="C255" s="3">
-        <f t="shared" ref="C255:J255" si="9">SUM(C196:C254)</f>
+        <f t="shared" ref="C255:J255" si="10">SUM(C196:C254)</f>
         <v>198</v>
       </c>
       <c r="D255" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>233</v>
       </c>
       <c r="E255" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="F255" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>140</v>
       </c>
       <c r="G255" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
       <c r="H255" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="I255" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="J255" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -17973,7 +20620,7 @@
         <v>0</v>
       </c>
       <c r="B261" s="3">
-        <f t="shared" ref="B261:B313" si="10" xml:space="preserve"> SUM(C261:J261)</f>
+        <f t="shared" ref="B261:B313" si="11" xml:space="preserve"> SUM(C261:J261)</f>
         <v>320</v>
       </c>
       <c r="C261" s="3">
@@ -18006,7 +20653,7 @@
         <v>1</v>
       </c>
       <c r="B262" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
       <c r="C262" s="3">
@@ -18039,7 +20686,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="C263" s="3">
@@ -18072,7 +20719,7 @@
         <v>3</v>
       </c>
       <c r="B264" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="C264" s="3">
@@ -18105,7 +20752,7 @@
         <v>4</v>
       </c>
       <c r="B265" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="C265" s="3">
@@ -18138,7 +20785,7 @@
         <v>5</v>
       </c>
       <c r="B266" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="C266" s="3">
@@ -18171,7 +20818,7 @@
         <v>6</v>
       </c>
       <c r="B267" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="C267" s="3">
@@ -18204,7 +20851,7 @@
         <v>7</v>
       </c>
       <c r="B268" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="C268" s="3">
@@ -18237,7 +20884,7 @@
         <v>8</v>
       </c>
       <c r="B269" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C269" s="3">
@@ -18270,7 +20917,7 @@
         <v>9</v>
       </c>
       <c r="B270" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C270" s="3">
@@ -18303,7 +20950,7 @@
         <v>10</v>
       </c>
       <c r="B271" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="C271" s="3">
@@ -18336,7 +20983,7 @@
         <v>11</v>
       </c>
       <c r="B272" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C272" s="3">
@@ -18369,7 +21016,7 @@
         <v>12</v>
       </c>
       <c r="B273" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C273" s="3">
@@ -18402,7 +21049,7 @@
         <v>13</v>
       </c>
       <c r="B274" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C274" s="3">
@@ -18435,7 +21082,7 @@
         <v>14</v>
       </c>
       <c r="B275" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C275" s="3">
@@ -18468,7 +21115,7 @@
         <v>15</v>
       </c>
       <c r="B276" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C276" s="3">
@@ -18501,7 +21148,7 @@
         <v>16</v>
       </c>
       <c r="B277" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C277" s="3">
@@ -18534,7 +21181,7 @@
         <v>17</v>
       </c>
       <c r="B278" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C278" s="3">
@@ -18567,7 +21214,7 @@
         <v>18</v>
       </c>
       <c r="B279" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C279" s="3">
@@ -18600,7 +21247,7 @@
         <v>19</v>
       </c>
       <c r="B280" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C280" s="3">
@@ -18633,7 +21280,7 @@
         <v>20</v>
       </c>
       <c r="B281" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C281" s="3">
@@ -18666,7 +21313,7 @@
         <v>21</v>
       </c>
       <c r="B282" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C282" s="3">
@@ -18699,7 +21346,7 @@
         <v>22</v>
       </c>
       <c r="B283" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C283" s="3">
@@ -18732,7 +21379,7 @@
         <v>23</v>
       </c>
       <c r="B284" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C284" s="3">
@@ -18765,7 +21412,7 @@
         <v>24</v>
       </c>
       <c r="B285" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C285" s="3">
@@ -18798,7 +21445,7 @@
         <v>25</v>
       </c>
       <c r="B286" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C286" s="3">
@@ -18831,7 +21478,7 @@
         <v>26</v>
       </c>
       <c r="B287" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C287" s="3">
@@ -18864,7 +21511,7 @@
         <v>27</v>
       </c>
       <c r="B288" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C288" s="3">
@@ -18897,7 +21544,7 @@
         <v>28</v>
       </c>
       <c r="B289" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C289" s="3">
@@ -18930,7 +21577,7 @@
         <v>29</v>
       </c>
       <c r="B290" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C290" s="3">
@@ -18963,7 +21610,7 @@
         <v>30</v>
       </c>
       <c r="B291" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C291" s="3">
@@ -18996,7 +21643,7 @@
         <v>31</v>
       </c>
       <c r="B292" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C292" s="3">
@@ -19029,7 +21676,7 @@
         <v>32</v>
       </c>
       <c r="B293" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C293" s="3">
@@ -19062,7 +21709,7 @@
         <v>33</v>
       </c>
       <c r="B294" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C294" s="3">
@@ -19095,7 +21742,7 @@
         <v>34</v>
       </c>
       <c r="B295" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="C295" s="3">
@@ -19128,7 +21775,7 @@
         <v>35</v>
       </c>
       <c r="B296" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C296" s="3">
@@ -19161,7 +21808,7 @@
         <v>36</v>
       </c>
       <c r="B297" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C297" s="3">
@@ -19194,7 +21841,7 @@
         <v>38</v>
       </c>
       <c r="B298" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C298" s="3">
@@ -19227,7 +21874,7 @@
         <v>39</v>
       </c>
       <c r="B299" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C299" s="3">
@@ -19260,7 +21907,7 @@
         <v>40</v>
       </c>
       <c r="B300" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C300" s="3">
@@ -19293,7 +21940,7 @@
         <v>41</v>
       </c>
       <c r="B301" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C301" s="3">
@@ -19326,7 +21973,7 @@
         <v>43</v>
       </c>
       <c r="B302" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C302" s="3">
@@ -19359,7 +22006,7 @@
         <v>44</v>
       </c>
       <c r="B303" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C303" s="3">
@@ -19392,7 +22039,7 @@
         <v>45</v>
       </c>
       <c r="B304" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C304" s="3">
@@ -19425,7 +22072,7 @@
         <v>46</v>
       </c>
       <c r="B305" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C305" s="3">
@@ -19458,7 +22105,7 @@
         <v>48</v>
       </c>
       <c r="B306" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C306" s="3">
@@ -19491,7 +22138,7 @@
         <v>49</v>
       </c>
       <c r="B307" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C307" s="3">
@@ -19524,7 +22171,7 @@
         <v>51</v>
       </c>
       <c r="B308" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C308" s="3">
@@ -19557,7 +22204,7 @@
         <v>52</v>
       </c>
       <c r="B309" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C309" s="3">
@@ -19590,7 +22237,7 @@
         <v>53</v>
       </c>
       <c r="B310" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C310" s="3">
@@ -19623,7 +22270,7 @@
         <v>56</v>
       </c>
       <c r="B311" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C311" s="3">
@@ -19656,7 +22303,7 @@
         <v>59</v>
       </c>
       <c r="B312" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C312" s="3">
@@ -19689,7 +22336,7 @@
         <v>61</v>
       </c>
       <c r="B313" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C313" s="3">
@@ -19759,41 +22406,42 @@
         <v>684</v>
       </c>
       <c r="C315" s="3">
-        <f t="shared" ref="C315:J315" si="11">SUM(C261:C314)</f>
+        <f t="shared" ref="C315:J315" si="12">SUM(C261:C314)</f>
         <v>123</v>
       </c>
       <c r="D315" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>147</v>
       </c>
       <c r="E315" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="F315" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>142</v>
       </c>
       <c r="G315" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>72</v>
       </c>
       <c r="H315" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
       <c r="I315" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="J315" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19804,10 +22452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19817,12 +22465,12 @@
     <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -19853,8 +22501,32 @@
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -19886,13 +22558,45 @@
       <c r="J3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="6">
+        <f>SUMPRODUCT($A$3:$A$20,C3:C20)/SUM(C3:C20)</f>
+        <v>1.3214285714285714</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3:S3" si="0">SUMPRODUCT($A$3:$A$20,D3:D20)/SUM(D3:D20)</f>
+        <v>3.7837837837837838</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>1.8268156424581006</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.56551724137931036</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61971830985915488</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.97727272727272729</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7931034482758621</v>
+      </c>
+      <c r="S3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" ref="B4:B19" si="0" xml:space="preserve"> SUM(C4:J4)</f>
+        <f t="shared" ref="B4:B19" si="1" xml:space="preserve"> SUM(C4:J4)</f>
         <v>229</v>
       </c>
       <c r="C4" s="3">
@@ -19920,12 +22624,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="C5" s="3">
@@ -19953,12 +22657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="C6" s="3">
@@ -19986,12 +22690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C7" s="3">
@@ -20019,12 +22723,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C8" s="3">
@@ -20052,12 +22756,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C9" s="3">
@@ -20085,12 +22789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C10" s="3">
@@ -20118,12 +22822,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C11" s="3">
@@ -20151,12 +22855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C12" s="3">
@@ -20184,12 +22888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C13" s="3">
@@ -20217,12 +22921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C14" s="3">
@@ -20250,12 +22954,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C15" s="3">
@@ -20283,12 +22987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C16" s="3">
@@ -20321,7 +23025,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C17" s="3">
@@ -20354,7 +23058,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C18" s="3">
@@ -20387,7 +23091,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C19" s="3">
@@ -20461,31 +23165,31 @@
         <v>168</v>
       </c>
       <c r="D21" s="3">
-        <f t="shared" ref="D21:J21" si="1">SUM(D3:D20)</f>
+        <f t="shared" ref="D21:J21" si="2">SUM(D3:D20)</f>
         <v>259</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -20564,7 +23268,7 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" ref="B28:B33" si="2" xml:space="preserve"> SUM(C28:J28)</f>
+        <f t="shared" ref="B28:B33" si="3" xml:space="preserve"> SUM(C28:J28)</f>
         <v>145</v>
       </c>
       <c r="C28" s="3">
@@ -20597,7 +23301,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="C29" s="3">
@@ -20630,7 +23334,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="C30" s="3">
@@ -20663,7 +23367,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C31" s="3">
@@ -20696,7 +23400,7 @@
         <v>5</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C32" s="3">
@@ -20729,7 +23433,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C33" s="3">
@@ -20766,35 +23470,35 @@
         <v>573</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:J34" si="3">SUM(C27:C33)</f>
+        <f t="shared" ref="C34:J34" si="4">SUM(C27:C33)</f>
         <v>187</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
@@ -20873,7 +23577,7 @@
         <v>1</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" ref="B40:B51" si="4" xml:space="preserve"> SUM(C40:J40)</f>
+        <f t="shared" ref="B40:B51" si="5" xml:space="preserve"> SUM(C40:J40)</f>
         <v>107</v>
       </c>
       <c r="C40" s="3">
@@ -20906,7 +23610,7 @@
         <v>2</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="C41" s="3">
@@ -20939,7 +23643,7 @@
         <v>3</v>
       </c>
       <c r="B42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="C42" s="3">
@@ -20972,7 +23676,7 @@
         <v>4</v>
       </c>
       <c r="B43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="C43" s="3">
@@ -21005,7 +23709,7 @@
         <v>5</v>
       </c>
       <c r="B44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C44" s="3">
@@ -21038,7 +23742,7 @@
         <v>6</v>
       </c>
       <c r="B45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C45" s="3">
@@ -21071,7 +23775,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C46" s="3">
@@ -21104,7 +23808,7 @@
         <v>8</v>
       </c>
       <c r="B47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C47" s="3">
@@ -21137,7 +23841,7 @@
         <v>9</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="C48" s="3">
@@ -21170,7 +23874,7 @@
         <v>10</v>
       </c>
       <c r="B49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C49" s="3">
@@ -21203,7 +23907,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C50" s="3">
@@ -21236,7 +23940,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="C51" s="3">
@@ -21273,35 +23977,35 @@
         <v>486</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" ref="C52:J52" si="5">SUM(C39:C51)</f>
+        <f t="shared" ref="C52:J52" si="6">SUM(C39:C51)</f>
         <v>186</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>91</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
     </row>
@@ -21393,7 +24097,7 @@
         <v>1</v>
       </c>
       <c r="B58" s="3">
-        <f t="shared" ref="B58:B69" si="6" xml:space="preserve"> SUM(C58:J58)</f>
+        <f t="shared" ref="B58:B69" si="7" xml:space="preserve"> SUM(C58:J58)</f>
         <v>153</v>
       </c>
       <c r="C58" s="3">
@@ -21427,7 +24131,7 @@
         <v>2</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="C59" s="3">
@@ -21461,7 +24165,7 @@
         <v>3</v>
       </c>
       <c r="B60" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="C60" s="3">
@@ -21495,7 +24199,7 @@
         <v>4</v>
       </c>
       <c r="B61" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="C61" s="3">
@@ -21529,7 +24233,7 @@
         <v>5</v>
       </c>
       <c r="B62" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="C62" s="3">
@@ -21563,7 +24267,7 @@
         <v>6</v>
       </c>
       <c r="B63" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C63" s="3">
@@ -21597,7 +24301,7 @@
         <v>7</v>
       </c>
       <c r="B64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="C64" s="3">
@@ -21631,7 +24335,7 @@
         <v>8</v>
       </c>
       <c r="B65" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C65" s="3">
@@ -21665,7 +24369,7 @@
         <v>9</v>
       </c>
       <c r="B66" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C66" s="3">
@@ -21699,7 +24403,7 @@
         <v>10</v>
       </c>
       <c r="B67" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C67" s="3">
@@ -21733,7 +24437,7 @@
         <v>12</v>
       </c>
       <c r="B68" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C68" s="3">
@@ -21767,7 +24471,7 @@
         <v>13</v>
       </c>
       <c r="B69" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="C69" s="3">
@@ -21805,35 +24509,35 @@
         <v>724</v>
       </c>
       <c r="C70" s="3">
-        <f t="shared" ref="C70:J70" si="7">SUM(C57:C69)</f>
+        <f t="shared" ref="C70:J70" si="8">SUM(C57:C69)</f>
         <v>217</v>
       </c>
       <c r="D70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>212</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="F70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>115</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="H70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="K70" s="3"/>
@@ -21913,7 +24617,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="3">
-        <f t="shared" ref="B76:B88" si="8" xml:space="preserve"> SUM(C76:J76)</f>
+        <f t="shared" ref="B76:B88" si="9" xml:space="preserve"> SUM(C76:J76)</f>
         <v>150</v>
       </c>
       <c r="C76" s="3">
@@ -21946,7 +24650,7 @@
         <v>2</v>
       </c>
       <c r="B77" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="C77" s="3">
@@ -21979,7 +24683,7 @@
         <v>3</v>
       </c>
       <c r="B78" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="C78" s="3">
@@ -22012,7 +24716,7 @@
         <v>4</v>
       </c>
       <c r="B79" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="C79" s="3">
@@ -22045,7 +24749,7 @@
         <v>5</v>
       </c>
       <c r="B80" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="C80" s="3">
@@ -22078,7 +24782,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="C81" s="3">
@@ -22111,7 +24815,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="C82" s="3">
@@ -22144,7 +24848,7 @@
         <v>8</v>
       </c>
       <c r="B83" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C83" s="3">
@@ -22177,7 +24881,7 @@
         <v>9</v>
       </c>
       <c r="B84" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C84" s="3">
@@ -22210,7 +24914,7 @@
         <v>10</v>
       </c>
       <c r="B85" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="C85" s="3">
@@ -22243,7 +24947,7 @@
         <v>11</v>
       </c>
       <c r="B86" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="C86" s="3">
@@ -22276,7 +24980,7 @@
         <v>12</v>
       </c>
       <c r="B87" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="C87" s="3">
@@ -22309,7 +25013,7 @@
         <v>15</v>
       </c>
       <c r="B88" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="C88" s="3">
@@ -22346,35 +25050,35 @@
         <v>755</v>
       </c>
       <c r="C89" s="3">
-        <f t="shared" ref="C89:J89" si="9">SUM(C75:C88)</f>
+        <f t="shared" ref="C89:J89" si="10">SUM(C75:C88)</f>
         <v>204</v>
       </c>
       <c r="D89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>202</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>117</v>
       </c>
       <c r="F89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>122</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
@@ -22453,7 +25157,7 @@
         <v>1</v>
       </c>
       <c r="B95" s="3">
-        <f t="shared" ref="B95:B108" si="10" xml:space="preserve"> SUM(C95:J95)</f>
+        <f t="shared" ref="B95:B108" si="11" xml:space="preserve"> SUM(C95:J95)</f>
         <v>156</v>
       </c>
       <c r="C95" s="3">
@@ -22486,7 +25190,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>73</v>
       </c>
       <c r="C96" s="3">
@@ -22519,7 +25223,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C97" s="3">
@@ -22552,7 +25256,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="C98" s="3">
@@ -22585,7 +25289,7 @@
         <v>5</v>
       </c>
       <c r="B99" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="C99" s="3">
@@ -22618,7 +25322,7 @@
         <v>6</v>
       </c>
       <c r="B100" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="C100" s="3">
@@ -22651,7 +25355,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="C101" s="3">
@@ -22684,7 +25388,7 @@
         <v>8</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="C102" s="3">
@@ -22717,7 +25421,7 @@
         <v>9</v>
       </c>
       <c r="B103" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C103" s="3">
@@ -22750,7 +25454,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C104" s="3">
@@ -22783,7 +25487,7 @@
         <v>11</v>
       </c>
       <c r="B105" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="C105" s="3">
@@ -22816,7 +25520,7 @@
         <v>12</v>
       </c>
       <c r="B106" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="C106" s="3">
@@ -22849,7 +25553,7 @@
         <v>13</v>
       </c>
       <c r="B107" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="C107" s="3">
@@ -22882,7 +25586,7 @@
         <v>14</v>
       </c>
       <c r="B108" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="C108" s="3">
@@ -22919,41 +25623,42 @@
         <v>647</v>
       </c>
       <c r="C109" s="3">
-        <f t="shared" ref="C109:J109" si="11">SUM(C94:C108)</f>
+        <f t="shared" ref="C109:J109" si="12">SUM(C94:C108)</f>
         <v>124</v>
       </c>
       <c r="D109" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>122</v>
       </c>
       <c r="E109" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="F109" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>144</v>
       </c>
       <c r="G109" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
       <c r="H109" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
       <c r="I109" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="J109" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
